--- a/notification.xlsx
+++ b/notification.xlsx
@@ -441,51 +441,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>identifiant</t>
+          <t>infos</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>garanno</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>rin_itoshi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nom</t>
+          <t>infos</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>gabimaru</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>hyoma</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>infos</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>sagiri</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>chigiri</t>
         </is>
       </c>
     </row>

--- a/notification.xlsx
+++ b/notification.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,42 +429,32 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>id (Base 1)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>nom (Base 1)</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>poste (Base 1)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>id (Base 1)</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>id (Base 2)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>nom (Base 2)</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>poste (Base 2)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>id (Base 2)</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>table (Base 1)</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>table (Base 2)</t>
         </is>
       </c>
     </row>
@@ -476,36 +466,34 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mr. Jeaneuds</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Développeur Full Stack</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Mr. Ahmed</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Chef département</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Mr. Jeaneuds</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Développeur Full Stack</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -515,36 +503,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mr. Mohamed</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Chef de projet</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Emma Moreau</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Chargée de recrutement</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Mr. Mohamed</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Chef de projet</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -554,57 +540,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mme. Hermione</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Administrateur Base de données</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Fabrice Dubois</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Responsable RH</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Mme. Hermione</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Administrateur Base de données</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>✅ existe</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>❌ absente</t>
         </is>
       </c>
     </row>

--- a/notification.xlsx
+++ b/notification.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Mr. Ahmed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Chef département</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Mr. Jeaneuds</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Développeur Full Stack</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Mr. Ahmed</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Chef département</t>
         </is>
       </c>
     </row>
@@ -508,27 +508,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Emma Moreau</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Chargée de recrutement</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Mr. Mohamed</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Chef de projet</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Emma Moreau</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Chargée de recrutement</t>
         </is>
       </c>
     </row>
@@ -545,27 +545,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Fabrice Dubois</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Responsable RH</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Mme. Hermione</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Administrateur Base de données</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fabrice Dubois</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Responsable RH</t>
         </is>
       </c>
     </row>

--- a/notification.xlsx
+++ b/notification.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,148 +424,106 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Identifiant</t>
+          <t>nom (Base 1)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>id (Base 1)</t>
+          <t>nom (Base 2)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>nom (Base 1)</t>
+          <t>description (Base 1)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>poste (Base 1)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id (Base 2)</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>nom (Base 2)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>poste (Base 2)</t>
+          <t>description (Base 2)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Mr. Jeaneuds</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Mr. Ahmed</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Chef département</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Mr. Jeaneuds</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Développeur Full Stack</t>
-        </is>
-      </c>
+          <t>Mr. Junior</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Mr. Mohamed</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Emma Moreau</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Chargée de recrutement</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mr. Mohamed</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Chef de projet</t>
-        </is>
-      </c>
+          <t>Hélène Rousseau</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Mme. Hermione</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Fabrice Dubois</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Responsable RH</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Mme. Hermione</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Administrateur Base de données</t>
+          <t>Isabelle Morel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Développement de l'application mobile</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Maintenance des équipements informatiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Gestion du projet de refonte du site web</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Gestion de la chaîne d'approvisionnement</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Analyse des besoins pour le nouveau système de gestion</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Analyse des données de performance</t>
         </is>
       </c>
     </row>
